--- a/tools/管理在售/数据/各站点在售商品.xlsx
+++ b/tools/管理在售/数据/各站点在售商品.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11237" uniqueCount="3021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11620" uniqueCount="3310">
   <si>
     <t>墨西哥</t>
   </si>
@@ -9075,22 +9075,889 @@
     <t>sku编码</t>
   </si>
   <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格1\FZ01</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格1\FZ02</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格1\FZ03</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格1\FZ04</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格4\合集-FZ602-FZ603-FZ604-FZ605-FZ606-FZ607-FZ608-FZ609-FZ610-FZ611-FZ612-FZ613-FZ614-FZ615</t>
-  </si>
-  <si>
-    <t>\\Desktop-inv4qoc\图片数据\整理图库\FZ\风格11\合集-FZ616-FZ617</t>
+    <t>FZ010-10mm</t>
+  </si>
+  <si>
+    <t>FZ010-12mm</t>
+  </si>
+  <si>
+    <t>FZ010-3mm</t>
+  </si>
+  <si>
+    <t>FZ010-4mm</t>
+  </si>
+  <si>
+    <t>FZ010-5mm</t>
+  </si>
+  <si>
+    <t>FZ010-6mm</t>
+  </si>
+  <si>
+    <t>FZ010-7mm</t>
+  </si>
+  <si>
+    <t>FZ010-8mm</t>
+  </si>
+  <si>
+    <t>FZ05-1</t>
+  </si>
+  <si>
+    <t>FZ05-10</t>
+  </si>
+  <si>
+    <t>FZ05-11</t>
+  </si>
+  <si>
+    <t>FZ05-11-200pcs</t>
+  </si>
+  <si>
+    <t>FZ05-12</t>
+  </si>
+  <si>
+    <t>FZ05-13</t>
+  </si>
+  <si>
+    <t>FZ05-2</t>
+  </si>
+  <si>
+    <t>FZ05-3</t>
+  </si>
+  <si>
+    <t>FZ05-4</t>
+  </si>
+  <si>
+    <t>FZ05-6</t>
+  </si>
+  <si>
+    <t>FZ05-7</t>
+  </si>
+  <si>
+    <t>FZ05-8</t>
+  </si>
+  <si>
+    <t>FZ05-9</t>
+  </si>
+  <si>
+    <t>FZ06-1</t>
+  </si>
+  <si>
+    <t>FZ06-10</t>
+  </si>
+  <si>
+    <t>FZ06-11</t>
+  </si>
+  <si>
+    <t>FZ06-11-200pcs</t>
+  </si>
+  <si>
+    <t>FZ06-12</t>
+  </si>
+  <si>
+    <t>FZ06-13</t>
+  </si>
+  <si>
+    <t>FZ06-2</t>
+  </si>
+  <si>
+    <t>FZ06-3</t>
+  </si>
+  <si>
+    <t>FZ06-4</t>
+  </si>
+  <si>
+    <t>FZ06-6</t>
+  </si>
+  <si>
+    <t>FZ06-7</t>
+  </si>
+  <si>
+    <t>FZ06-8</t>
+  </si>
+  <si>
+    <t>FZ06-9</t>
+  </si>
+  <si>
+    <t>FZ07-10mm</t>
+  </si>
+  <si>
+    <t>FZ07-12mm</t>
+  </si>
+  <si>
+    <t>FZ07-3mm</t>
+  </si>
+  <si>
+    <t>FZ07-4mm</t>
+  </si>
+  <si>
+    <t>FZ07-5</t>
+  </si>
+  <si>
+    <t>FZ07-5mm</t>
+  </si>
+  <si>
+    <t>FZ07-6mm</t>
+  </si>
+  <si>
+    <t>FZ07-7mm</t>
+  </si>
+  <si>
+    <t>FZ07-8mm</t>
+  </si>
+  <si>
+    <t>FZ08-10mm</t>
+  </si>
+  <si>
+    <t>FZ08-12mm</t>
+  </si>
+  <si>
+    <t>FZ08-3mm</t>
+  </si>
+  <si>
+    <t>FZ08-4mm</t>
+  </si>
+  <si>
+    <t>FZ08-5</t>
+  </si>
+  <si>
+    <t>FZ08-5mm</t>
+  </si>
+  <si>
+    <t>FZ08-6mm</t>
+  </si>
+  <si>
+    <t>FZ08-7mm</t>
+  </si>
+  <si>
+    <t>FZ08-8mm</t>
+  </si>
+  <si>
+    <t>FZ09-10mm</t>
+  </si>
+  <si>
+    <t>FZ09-12mm</t>
+  </si>
+  <si>
+    <t>FZ09-3mm</t>
+  </si>
+  <si>
+    <t>FZ09-4mm</t>
+  </si>
+  <si>
+    <t>FZ09-5mm</t>
+  </si>
+  <si>
+    <t>FZ09-6mm</t>
+  </si>
+  <si>
+    <t>FZ09-7mm</t>
+  </si>
+  <si>
+    <t>FZ09-8mm</t>
+  </si>
+  <si>
+    <t>FZ11-10mm</t>
+  </si>
+  <si>
+    <t>FZ11-10mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ11-12mm</t>
+  </si>
+  <si>
+    <t>FZ11-12mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ11-14mm</t>
+  </si>
+  <si>
+    <t>FZ11-14mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ12-10mm</t>
+  </si>
+  <si>
+    <t>FZ12-10mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ121-1</t>
+  </si>
+  <si>
+    <t>FZ121-2</t>
+  </si>
+  <si>
+    <t>FZ12-12mm</t>
+  </si>
+  <si>
+    <t>FZ12-12mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ121-3</t>
+  </si>
+  <si>
+    <t>FZ121-4</t>
+  </si>
+  <si>
+    <t>FZ12-14mm</t>
+  </si>
+  <si>
+    <t>FZ12-14mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ13-10mm</t>
+  </si>
+  <si>
+    <t>FZ13-10mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ13-12mm</t>
+  </si>
+  <si>
+    <t>FZ13-12mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ13-14mm</t>
+  </si>
+  <si>
+    <t>FZ13-14mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ132-100pss</t>
+  </si>
+  <si>
+    <t>FZ132-50pcs</t>
+  </si>
+  <si>
+    <t>FZ14-10mm</t>
+  </si>
+  <si>
+    <t>FZ14-10mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ14-12mm</t>
+  </si>
+  <si>
+    <t>FZ14-12mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ14-14mm</t>
+  </si>
+  <si>
+    <t>FZ14-14mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ142-1</t>
+  </si>
+  <si>
+    <t>FZ142-1-100pcs</t>
+  </si>
+  <si>
+    <t>FZ142-2</t>
+  </si>
+  <si>
+    <t>FZ142-2-100pcs</t>
+  </si>
+  <si>
+    <t>FZ142-3</t>
+  </si>
+  <si>
+    <t>FZ142-3-100pcs</t>
+  </si>
+  <si>
+    <t>FZ142-4</t>
+  </si>
+  <si>
+    <t>FZ142-4-100pcs</t>
+  </si>
+  <si>
+    <t>FZ142-5</t>
+  </si>
+  <si>
+    <t>FZ142-5-100pcs</t>
+  </si>
+  <si>
+    <t>FZ15-10mm</t>
+  </si>
+  <si>
+    <t>FZ15-10mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ15-12mm</t>
+  </si>
+  <si>
+    <t>FZ15-12mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ15-14mm</t>
+  </si>
+  <si>
+    <t>FZ15-14mm-100pcs</t>
+  </si>
+  <si>
+    <t>FZ174-0</t>
+  </si>
+  <si>
+    <t>FZ174-1</t>
+  </si>
+  <si>
+    <t>FZ174-2</t>
+  </si>
+  <si>
+    <t>FZ174-3</t>
+  </si>
+  <si>
+    <t>FZ174-4</t>
+  </si>
+  <si>
+    <t>FZ174-5</t>
+  </si>
+  <si>
+    <t>FZ175-0</t>
+  </si>
+  <si>
+    <t>FZ175-0-300pcs</t>
+  </si>
+  <si>
+    <t>FZ175-1</t>
+  </si>
+  <si>
+    <t>FZ175-1-300pcs</t>
+  </si>
+  <si>
+    <t>FZ175-2</t>
+  </si>
+  <si>
+    <t>FZ175-2-300pcs</t>
+  </si>
+  <si>
+    <t>FZ175-3</t>
+  </si>
+  <si>
+    <t>FZ175-3-300pcs</t>
+  </si>
+  <si>
+    <t>FZ175-4</t>
+  </si>
+  <si>
+    <t>FZ175-4-300pcs</t>
+  </si>
+  <si>
+    <t>FZ175-5</t>
+  </si>
+  <si>
+    <t>FZ175-5-300pcs</t>
+  </si>
+  <si>
+    <t>FZ176-0</t>
+  </si>
+  <si>
+    <t>FZ176-1</t>
+  </si>
+  <si>
+    <t>FZ176-2</t>
+  </si>
+  <si>
+    <t>FZ176-3</t>
+  </si>
+  <si>
+    <t>FZ176-4</t>
+  </si>
+  <si>
+    <t>FZ176-5</t>
+  </si>
+  <si>
+    <t>FZ177-1</t>
+  </si>
+  <si>
+    <t>FZ177-2</t>
+  </si>
+  <si>
+    <t>FZ177-3</t>
+  </si>
+  <si>
+    <t>FZ177-4</t>
+  </si>
+  <si>
+    <t>FZ177-5</t>
+  </si>
+  <si>
+    <t>FZ177-6</t>
+  </si>
+  <si>
+    <t>FZ181-0</t>
+  </si>
+  <si>
+    <t>FZ181-1</t>
+  </si>
+  <si>
+    <t>FZ181-2</t>
+  </si>
+  <si>
+    <t>FZ181-3</t>
+  </si>
+  <si>
+    <t>FZ181-4</t>
+  </si>
+  <si>
+    <t>FZ181-5</t>
+  </si>
+  <si>
+    <t>FZ185-0</t>
+  </si>
+  <si>
+    <t>FZ185-1</t>
+  </si>
+  <si>
+    <t>FZ185-2</t>
+  </si>
+  <si>
+    <t>FZ185-3</t>
+  </si>
+  <si>
+    <t>FZ185-4</t>
+  </si>
+  <si>
+    <t>FZ186-0</t>
+  </si>
+  <si>
+    <t>FZ186-1</t>
+  </si>
+  <si>
+    <t>FZ186-2</t>
+  </si>
+  <si>
+    <t>FZ215-1</t>
+  </si>
+  <si>
+    <t>FZ215-2</t>
+  </si>
+  <si>
+    <t>FZ219-1</t>
+  </si>
+  <si>
+    <t>FZ219-2</t>
+  </si>
+  <si>
+    <t>FZ219-3</t>
+  </si>
+  <si>
+    <t>FZ219-4</t>
+  </si>
+  <si>
+    <t>FZ219-5</t>
+  </si>
+  <si>
+    <t>FZ220-1</t>
+  </si>
+  <si>
+    <t>FZ220-2</t>
+  </si>
+  <si>
+    <t>FZ220-3</t>
+  </si>
+  <si>
+    <t>FZ220-4</t>
+  </si>
+  <si>
+    <t>FZ227-0</t>
+  </si>
+  <si>
+    <t>FZ227-1</t>
+  </si>
+  <si>
+    <t>FZ227-2</t>
+  </si>
+  <si>
+    <t>FZ228-0</t>
+  </si>
+  <si>
+    <t>FZ228-1</t>
+  </si>
+  <si>
+    <t>FZ228-2</t>
+  </si>
+  <si>
+    <t>FZ228-3</t>
+  </si>
+  <si>
+    <t>FZ228-4</t>
+  </si>
+  <si>
+    <t>FZ250-0</t>
+  </si>
+  <si>
+    <t>FZ250-1</t>
+  </si>
+  <si>
+    <t>FZ250-2</t>
+  </si>
+  <si>
+    <t>FZ250-3</t>
+  </si>
+  <si>
+    <t>FZ250-4</t>
+  </si>
+  <si>
+    <t>FZ250-5</t>
+  </si>
+  <si>
+    <t>FZ276-1</t>
+  </si>
+  <si>
+    <t>FZ276-2</t>
+  </si>
+  <si>
+    <t>FZ276-3</t>
+  </si>
+  <si>
+    <t>FZ276-4</t>
+  </si>
+  <si>
+    <t>FZ277-1</t>
+  </si>
+  <si>
+    <t>FZ277-2</t>
+  </si>
+  <si>
+    <t>FZ277-3</t>
+  </si>
+  <si>
+    <t>FZ277-4</t>
+  </si>
+  <si>
+    <t>FZ280-1</t>
+  </si>
+  <si>
+    <t>FZ280-2</t>
+  </si>
+  <si>
+    <t>FZ280-3</t>
+  </si>
+  <si>
+    <t>FZ287-20mm</t>
+  </si>
+  <si>
+    <t>FZ287-30mm</t>
+  </si>
+  <si>
+    <t>FZ287-35mm</t>
+  </si>
+  <si>
+    <t>FZ287-40mm</t>
+  </si>
+  <si>
+    <t>FZ287-50mm</t>
+  </si>
+  <si>
+    <t>FZ289-20mm</t>
+  </si>
+  <si>
+    <t>FZ289-30mm</t>
+  </si>
+  <si>
+    <t>FZ289-35mm</t>
+  </si>
+  <si>
+    <t>FZ289-40mm</t>
+  </si>
+  <si>
+    <t>FZ289-50mm</t>
+  </si>
+  <si>
+    <t>FZ291-20mm</t>
+  </si>
+  <si>
+    <t>FZ291-30mm</t>
+  </si>
+  <si>
+    <t>FZ291-35mm</t>
+  </si>
+  <si>
+    <t>FZ291-40mm</t>
+  </si>
+  <si>
+    <t>FZ291-50mm</t>
+  </si>
+  <si>
+    <t>FZ292-20mm</t>
+  </si>
+  <si>
+    <t>FZ292-30mm</t>
+  </si>
+  <si>
+    <t>FZ292-35mm</t>
+  </si>
+  <si>
+    <t>FZ292-40mm</t>
+  </si>
+  <si>
+    <t>FZ292-50mm</t>
+  </si>
+  <si>
+    <t>FZ293-0</t>
+  </si>
+  <si>
+    <t>FZ293-1</t>
+  </si>
+  <si>
+    <t>FZ293-2</t>
+  </si>
+  <si>
+    <t>FZ293-3</t>
+  </si>
+  <si>
+    <t>FZ293-4</t>
+  </si>
+  <si>
+    <t>FZ295-0</t>
+  </si>
+  <si>
+    <t>FZ295-1</t>
+  </si>
+  <si>
+    <t>FZ295-2</t>
+  </si>
+  <si>
+    <t>FZ295-3</t>
+  </si>
+  <si>
+    <t>FZ297-10mm</t>
+  </si>
+  <si>
+    <t>FZ297-12mm</t>
+  </si>
+  <si>
+    <t>FZ297-3mm</t>
+  </si>
+  <si>
+    <t>FZ297-4mm</t>
+  </si>
+  <si>
+    <t>FZ297-5mm</t>
+  </si>
+  <si>
+    <t>FZ297-6mm</t>
+  </si>
+  <si>
+    <t>FZ297-7mm</t>
+  </si>
+  <si>
+    <t>FZ297-8mm</t>
+  </si>
+  <si>
+    <t>FZ298-10mm</t>
+  </si>
+  <si>
+    <t>FZ298-12mm</t>
+  </si>
+  <si>
+    <t>FZ298-3mm</t>
+  </si>
+  <si>
+    <t>FZ298-4mm</t>
+  </si>
+  <si>
+    <t>FZ298-5mm</t>
+  </si>
+  <si>
+    <t>FZ298-6mm</t>
+  </si>
+  <si>
+    <t>FZ298-7mm</t>
+  </si>
+  <si>
+    <t>FZ298-8mm</t>
+  </si>
+  <si>
+    <t>FZ344-0</t>
+  </si>
+  <si>
+    <t>FZ344-1</t>
+  </si>
+  <si>
+    <t>FZ344-2</t>
+  </si>
+  <si>
+    <t>FZ344-3</t>
+  </si>
+  <si>
+    <t>FZ344-4</t>
+  </si>
+  <si>
+    <t>FZ581-1</t>
+  </si>
+  <si>
+    <t>FZ581-2</t>
+  </si>
+  <si>
+    <t>FZ581-3</t>
+  </si>
+  <si>
+    <t>FZ581-4</t>
+  </si>
+  <si>
+    <t>FZ581-5</t>
+  </si>
+  <si>
+    <t>FZ582-1</t>
+  </si>
+  <si>
+    <t>FZ582-2</t>
+  </si>
+  <si>
+    <t>FZ582-3</t>
+  </si>
+  <si>
+    <t>FZ582-4</t>
+  </si>
+  <si>
+    <t>FZ582-5</t>
+  </si>
+  <si>
+    <t>FZ584-1</t>
+  </si>
+  <si>
+    <t>FZ584-2</t>
+  </si>
+  <si>
+    <t>FZ584-3</t>
+  </si>
+  <si>
+    <t>FZ584-4</t>
+  </si>
+  <si>
+    <t>FZ584-5</t>
+  </si>
+  <si>
+    <t>FZ585-1</t>
+  </si>
+  <si>
+    <t>FZ585-2</t>
+  </si>
+  <si>
+    <t>FZ585-3</t>
+  </si>
+  <si>
+    <t>FZ585-4</t>
+  </si>
+  <si>
+    <t>FZ585-5</t>
+  </si>
+  <si>
+    <t>FZ636-0</t>
+  </si>
+  <si>
+    <t>FZ636-1</t>
+  </si>
+  <si>
+    <t>FZ636-2</t>
+  </si>
+  <si>
+    <t>FZ636-3</t>
+  </si>
+  <si>
+    <t>FZ636-4</t>
+  </si>
+  <si>
+    <t>FZ66-0</t>
+  </si>
+  <si>
+    <t>FZ66-1</t>
+  </si>
+  <si>
+    <t>FZ66-2</t>
+  </si>
+  <si>
+    <t>FZ66-3</t>
+  </si>
+  <si>
+    <t>FZ66-4</t>
+  </si>
+  <si>
+    <t>FZ67-0</t>
+  </si>
+  <si>
+    <t>FZ67-1</t>
+  </si>
+  <si>
+    <t>FZ67-2</t>
+  </si>
+  <si>
+    <t>FZ67-3</t>
+  </si>
+  <si>
+    <t>FZ67-4</t>
+  </si>
+  <si>
+    <t>HZ-TE01-2mm</t>
+  </si>
+  <si>
+    <t>HZ-TE01-3mm</t>
+  </si>
+  <si>
+    <t>HZ-TE01-4mm</t>
+  </si>
+  <si>
+    <t>HZ-TE01-5mm</t>
+  </si>
+  <si>
+    <t>HZ-TE01-6mm</t>
+  </si>
+  <si>
+    <t>HZ-TE01-8mm</t>
+  </si>
+  <si>
+    <t>HZ-TE02-2mm</t>
+  </si>
+  <si>
+    <t>HZ-TE02-3mm</t>
+  </si>
+  <si>
+    <t>HZ-TE02-4mm</t>
+  </si>
+  <si>
+    <t>HZ-TE02-5mm</t>
+  </si>
+  <si>
+    <t>HZ-TE02-6mm</t>
+  </si>
+  <si>
+    <t>HZ-TE02-8mm</t>
+  </si>
+  <si>
+    <t>TH106</t>
+  </si>
+  <si>
+    <t>TH107</t>
+  </si>
+  <si>
+    <t>TH108</t>
+  </si>
+  <si>
+    <t>TH112-1</t>
+  </si>
+  <si>
+    <t>TH112-2</t>
+  </si>
+  <si>
+    <t>TH112-3</t>
+  </si>
+  <si>
+    <t>TH112-4</t>
+  </si>
+  <si>
+    <t>TH128</t>
+  </si>
+  <si>
+    <t>TH129</t>
+  </si>
+  <si>
+    <t>TH148-1#</t>
+  </si>
+  <si>
+    <t>TH148-2#</t>
+  </si>
+  <si>
+    <t>TH148-3#</t>
   </si>
 </sst>
 </file>
@@ -10241,7 +11108,7 @@
   <dimension ref="A1:D3220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -50395,51 +51262,1966 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:A390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3014</v>
       </c>
     </row>
-    <row r="2" spans="15:15">
-      <c r="O2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>3015</v>
       </c>
     </row>
-    <row r="3" spans="15:15">
-      <c r="O3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>3016</v>
       </c>
     </row>
-    <row r="4" spans="15:15">
-      <c r="O4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3017</v>
       </c>
     </row>
-    <row r="5" spans="15:15">
-      <c r="O5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>3018</v>
       </c>
     </row>
-    <row r="6" spans="15:15">
-      <c r="O6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="7" spans="15:15">
-      <c r="O7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>3020</v>
       </c>
     </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>2889</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A169">
+  <sortState ref="A1:A438">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
